--- a/DCS_Missions/DCS_Maps/Kavkaz/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Kavkaz/Base/Kneeboards/presets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Kavkaz\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A79DD-62B2-4075-B152-B47B8A08C3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9DDAE6-121F-4432-ACC1-F3B08AB38BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="2835" windowWidth="43200" windowHeight="17145" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="5325" yWindow="4635" windowWidth="43200" windowHeight="17145" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
     <sheet name="F-15E" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="252">
   <si>
     <t>ARC-186</t>
   </si>
@@ -810,6 +810,12 @@
   </si>
   <si>
     <t>30/339.97</t>
+  </si>
+  <si>
+    <t>Texaco 1 AAR</t>
+  </si>
+  <si>
+    <t>Texaco 2 AAR</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1732,117 +1738,68 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1913,9 +1870,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1953,7 +1910,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2059,7 +2016,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2201,7 +2158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2215,7 +2172,7 @@
   <dimension ref="C2:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,24 +2184,24 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>248</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -2282,10 +2239,10 @@
       <c r="G6" s="88">
         <v>1</v>
       </c>
-      <c r="H6" s="207" t="s">
+      <c r="H6" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="208" t="s">
+      <c r="I6" s="197" t="s">
         <v>92</v>
       </c>
       <c r="J6" s="88">
@@ -2382,14 +2339,14 @@
       <c r="L9" s="105"/>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="89">
+      <c r="D10" s="212">
         <v>5</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="105" t="s">
-        <v>133</v>
+      <c r="F10" s="213" t="s">
+        <v>251</v>
       </c>
       <c r="G10" s="156">
         <v>5</v>
@@ -2411,14 +2368,14 @@
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="98">
+      <c r="D11" s="212">
         <v>6</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="100" t="s">
-        <v>89</v>
+      <c r="F11" s="213" t="s">
+        <v>250</v>
       </c>
       <c r="G11" s="156">
         <v>6</v>
@@ -2811,10 +2768,10 @@
       <c r="G25" s="186">
         <v>20</v>
       </c>
-      <c r="H25" s="209" t="s">
+      <c r="H25" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="210" t="s">
+      <c r="I25" s="199" t="s">
         <v>132</v>
       </c>
       <c r="J25" s="165">
@@ -2848,13 +2805,13 @@
       <c r="E28" s="150"/>
       <c r="F28" s="150"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="196" t="s">
+      <c r="H28" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="197"/>
+      <c r="I28" s="207"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="149" t="s">
@@ -2893,11 +2850,9 @@
       <c r="L31" s="86"/>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="212"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="215"/>
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="87"/>
       <c r="J32" s="2"/>
       <c r="K32" s="86"/>
@@ -2965,24 +2920,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -3293,10 +3248,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -3371,24 +3326,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -3650,10 +3605,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -3728,24 +3683,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -4100,10 +4055,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -4182,37 +4137,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>224</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="205"/>
+      <c r="E5" s="211"/>
       <c r="F5" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="204" t="s">
+      <c r="G5" s="210" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="205"/>
+      <c r="H5" s="211"/>
       <c r="I5" s="43" t="s">
         <v>227</v>
       </c>
@@ -4333,7 +4288,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106"/>
@@ -4342,7 +4297,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123"/>
@@ -4351,7 +4306,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123"/>
@@ -4360,7 +4315,7 @@
       <c r="G19" s="106"/>
       <c r="H19" s="107"/>
       <c r="I19" s="108"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93"/>
@@ -4511,10 +4466,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="196" t="s">
+      <c r="H37" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="197"/>
+      <c r="I37" s="207"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -4623,30 +4578,30 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="201"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5287,7 +5242,7 @@
       <c r="L27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="206"/>
+      <c r="M27" s="209"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="128">
@@ -5317,7 +5272,7 @@
       <c r="L28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="206"/>
+      <c r="M28" s="209"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="128">
@@ -5347,7 +5302,7 @@
       <c r="L29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="206"/>
+      <c r="M29" s="209"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="128">
@@ -5377,7 +5332,7 @@
       <c r="L30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="206"/>
+      <c r="M30" s="209"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="128">
@@ -5508,10 +5463,10 @@
       <c r="H39" s="132"/>
       <c r="I39" s="132"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="196" t="s">
+      <c r="K39" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="197"/>
+      <c r="L39" s="207"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="133" t="s">
@@ -5631,24 +5586,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -5785,7 +5740,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89"/>
@@ -5794,7 +5749,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89"/>
@@ -5803,7 +5758,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89"/>
@@ -5812,7 +5767,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89"/>
@@ -5890,10 +5845,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -5977,24 +5932,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -6159,7 +6114,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="156">
@@ -6174,7 +6129,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -6189,7 +6144,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6204,7 +6159,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="128">
@@ -6316,10 +6271,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -6401,24 +6356,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -6655,7 +6610,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -6676,7 +6631,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -6697,7 +6652,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6716,7 +6671,7 @@
         <v>171</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -6854,10 +6809,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -6947,24 +6902,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -7202,7 +7157,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -7223,7 +7178,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -7244,7 +7199,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -7265,7 +7220,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -7416,10 +7371,10 @@
       <c r="E29" s="132"/>
       <c r="F29" s="132"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="133" t="s">
@@ -7523,37 +7478,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="205"/>
+      <c r="E5" s="211"/>
       <c r="F5" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="204" t="s">
+      <c r="G5" s="210" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="205"/>
+      <c r="H5" s="211"/>
       <c r="I5" s="43" t="s">
         <v>223</v>
       </c>
@@ -7778,7 +7733,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -7799,7 +7754,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -7820,7 +7775,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -7841,7 +7796,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -8120,10 +8075,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="196" t="s">
+      <c r="H37" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="197"/>
+      <c r="I37" s="207"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -8255,24 +8210,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -8620,10 +8575,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">

--- a/DCS_Missions/DCS_Maps/Kavkaz/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Kavkaz/Base/Kneeboards/presets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Kavkaz\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA36C7-1A99-4627-874E-13954AD435A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920ED4CE-2B2C-498B-A673-BF01303C4072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="2805" windowWidth="22050" windowHeight="17145" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="8265" yWindow="2160" windowWidth="22050" windowHeight="17145" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
     <sheet name="F4E II" sheetId="20" r:id="rId1"/>
@@ -1287,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1871,6 +1871,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1909,185 +1972,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2600,7 +2490,7 @@
   <dimension ref="C2:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,24 +2502,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -2652,55 +2542,55 @@
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="242">
+      <c r="D6" s="219">
         <v>1</v>
       </c>
-      <c r="E6" s="243">
+      <c r="E6" s="220">
         <v>261</v>
       </c>
-      <c r="F6" s="244" t="s">
+      <c r="F6" s="221" t="s">
         <v>258</v>
       </c>
       <c r="G6" s="206">
         <v>1</v>
       </c>
-      <c r="H6" s="224">
+      <c r="H6" s="211">
         <v>265</v>
       </c>
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="237">
+      <c r="D7" s="214">
         <v>2</v>
       </c>
-      <c r="E7" s="238">
+      <c r="E7" s="215">
         <v>250</v>
       </c>
-      <c r="F7" s="239" t="s">
+      <c r="F7" s="216" t="s">
         <v>259</v>
       </c>
-      <c r="G7" s="228">
+      <c r="G7" s="121">
         <v>2</v>
       </c>
-      <c r="H7" s="229">
+      <c r="H7" s="212">
         <v>283</v>
       </c>
       <c r="I7" s="91"/>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="237">
+      <c r="D8" s="214">
         <v>3</v>
       </c>
-      <c r="E8" s="238">
+      <c r="E8" s="215">
         <v>249</v>
       </c>
-      <c r="F8" s="239" t="s">
+      <c r="F8" s="216" t="s">
         <v>260</v>
       </c>
-      <c r="G8" s="228">
+      <c r="G8" s="121">
         <v>3</v>
       </c>
-      <c r="H8" s="229">
+      <c r="H8" s="212">
         <v>265</v>
       </c>
       <c r="I8" s="91"/>
@@ -2709,16 +2599,16 @@
       <c r="D9" s="146">
         <v>4</v>
       </c>
-      <c r="E9" s="240">
+      <c r="E9" s="217">
         <v>252.3</v>
       </c>
-      <c r="F9" s="241" t="s">
+      <c r="F9" s="218" t="s">
         <v>261</v>
       </c>
-      <c r="G9" s="228">
+      <c r="G9" s="121">
         <v>4</v>
       </c>
-      <c r="H9" s="229">
+      <c r="H9" s="212">
         <v>281</v>
       </c>
       <c r="I9" s="105"/>
@@ -2727,16 +2617,16 @@
       <c r="D10" s="146">
         <v>5</v>
       </c>
-      <c r="E10" s="240">
+      <c r="E10" s="217">
         <v>252.1</v>
       </c>
-      <c r="F10" s="241" t="s">
+      <c r="F10" s="218" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="228">
+      <c r="G10" s="121">
         <v>5</v>
       </c>
-      <c r="H10" s="229">
+      <c r="H10" s="212">
         <v>280</v>
       </c>
       <c r="I10" s="105"/>
@@ -2745,230 +2635,230 @@
       <c r="D11" s="194">
         <v>6</v>
       </c>
-      <c r="E11" s="245">
+      <c r="E11" s="222">
         <v>269</v>
       </c>
-      <c r="F11" s="246" t="s">
+      <c r="F11" s="223" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="228">
+      <c r="G11" s="121">
         <v>6</v>
       </c>
-      <c r="H11" s="229">
+      <c r="H11" s="212">
         <v>279</v>
       </c>
       <c r="I11" s="122"/>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="231">
+      <c r="D12" s="89">
         <v>7</v>
       </c>
-      <c r="E12" s="232" t="s">
+      <c r="E12" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="233"/>
-      <c r="G12" s="228">
+      <c r="F12" s="91"/>
+      <c r="G12" s="121">
         <v>7</v>
       </c>
-      <c r="H12" s="229">
+      <c r="H12" s="212">
         <v>270</v>
       </c>
       <c r="I12" s="91"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="231">
+      <c r="D13" s="89">
         <v>8</v>
       </c>
-      <c r="E13" s="232" t="s">
+      <c r="E13" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="233" t="s">
+      <c r="F13" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="228">
+      <c r="G13" s="121">
         <v>8</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="212">
         <v>277</v>
       </c>
       <c r="I13" s="91"/>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="231">
+      <c r="D14" s="89">
         <v>9</v>
       </c>
-      <c r="E14" s="232" t="s">
+      <c r="E14" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="233" t="s">
+      <c r="F14" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="228">
+      <c r="G14" s="121">
         <v>9</v>
       </c>
-      <c r="H14" s="229">
+      <c r="H14" s="212">
         <v>276</v>
       </c>
       <c r="I14" s="91"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="231">
+      <c r="D15" s="89">
         <v>10</v>
       </c>
-      <c r="E15" s="232" t="s">
+      <c r="E15" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="233" t="s">
+      <c r="F15" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="228">
+      <c r="G15" s="121">
         <v>10</v>
       </c>
-      <c r="H15" s="229">
+      <c r="H15" s="212">
         <v>275</v>
       </c>
       <c r="I15" s="91"/>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="231">
+      <c r="D16" s="89">
         <v>11</v>
       </c>
-      <c r="E16" s="232" t="s">
+      <c r="E16" s="212" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="233" t="s">
+      <c r="F16" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="228">
+      <c r="G16" s="121">
         <v>11</v>
       </c>
-      <c r="H16" s="229">
+      <c r="H16" s="212">
         <v>274</v>
       </c>
       <c r="I16" s="91"/>
-      <c r="J16" s="217"/>
+      <c r="J16" s="238"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="231">
+      <c r="D17" s="89">
         <v>12</v>
       </c>
-      <c r="E17" s="232" t="s">
+      <c r="E17" s="212" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="233" t="s">
+      <c r="F17" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="228">
+      <c r="G17" s="121">
         <v>12</v>
       </c>
-      <c r="H17" s="229">
+      <c r="H17" s="212">
         <v>268</v>
       </c>
       <c r="I17" s="91"/>
-      <c r="J17" s="217"/>
+      <c r="J17" s="238"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="231">
+      <c r="D18" s="89">
         <v>13</v>
       </c>
-      <c r="E18" s="232">
+      <c r="E18" s="212">
         <v>268</v>
       </c>
-      <c r="F18" s="233"/>
-      <c r="G18" s="228">
+      <c r="F18" s="91"/>
+      <c r="G18" s="121">
         <v>13</v>
       </c>
-      <c r="H18" s="229">
+      <c r="H18" s="212">
         <v>269</v>
       </c>
       <c r="I18" s="122"/>
-      <c r="J18" s="217"/>
+      <c r="J18" s="238"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="231">
+      <c r="D19" s="89">
         <v>14</v>
       </c>
-      <c r="E19" s="232">
+      <c r="E19" s="212">
         <v>270</v>
       </c>
-      <c r="F19" s="233"/>
-      <c r="G19" s="228">
+      <c r="F19" s="91"/>
+      <c r="G19" s="121">
         <v>14</v>
       </c>
-      <c r="H19" s="229">
+      <c r="H19" s="212">
         <v>271</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="217"/>
+      <c r="J19" s="238"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="231">
+      <c r="D20" s="89">
         <v>15</v>
       </c>
-      <c r="E20" s="232" t="s">
+      <c r="E20" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="233" t="s">
+      <c r="F20" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="228">
+      <c r="G20" s="121">
         <v>15</v>
       </c>
-      <c r="H20" s="229">
+      <c r="H20" s="212">
         <v>278</v>
       </c>
       <c r="I20" s="91"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="231">
+      <c r="D21" s="89">
         <v>16</v>
       </c>
-      <c r="E21" s="232" t="s">
+      <c r="E21" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="233" t="s">
+      <c r="F21" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="228">
+      <c r="G21" s="121">
         <v>16</v>
       </c>
-      <c r="H21" s="229">
+      <c r="H21" s="212">
         <v>273</v>
       </c>
       <c r="I21" s="91"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="231">
+      <c r="D22" s="89">
         <v>17</v>
       </c>
-      <c r="E22" s="232" t="s">
+      <c r="E22" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="233" t="s">
+      <c r="F22" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="228">
+      <c r="G22" s="121">
         <v>17</v>
       </c>
-      <c r="H22" s="229">
+      <c r="H22" s="212">
         <v>267</v>
       </c>
       <c r="I22" s="91"/>
     </row>
     <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="234">
+      <c r="D23" s="165">
         <v>18</v>
       </c>
-      <c r="E23" s="235" t="s">
+      <c r="E23" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="236" t="s">
+      <c r="F23" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="228">
+      <c r="G23" s="121">
         <v>18</v>
       </c>
-      <c r="H23" s="229">
+      <c r="H23" s="212">
         <v>272</v>
       </c>
       <c r="I23" s="91"/>
@@ -2980,7 +2870,7 @@
       <c r="G24" s="89">
         <v>19</v>
       </c>
-      <c r="H24" s="229">
+      <c r="H24" s="212">
         <v>282</v>
       </c>
       <c r="I24" s="91"/>
@@ -2992,7 +2882,7 @@
       <c r="G25" s="165">
         <v>20</v>
       </c>
-      <c r="H25" s="230">
+      <c r="H25" s="213">
         <v>266</v>
       </c>
       <c r="I25" s="167"/>
@@ -3001,9 +2891,9 @@
       <c r="D26" s="51"/>
       <c r="E26" s="12"/>
       <c r="F26" s="53"/>
-      <c r="G26" s="225"/>
-      <c r="H26" s="226"/>
-      <c r="I26" s="227"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D27" s="51"/>
@@ -3025,10 +2915,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -3060,42 +2950,42 @@
       <c r="I32" s="87"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="247" t="s">
+      <c r="D33" s="228" t="s">
         <v>269</v>
       </c>
-      <c r="E33" s="248"/>
-      <c r="F33" s="249" t="s">
+      <c r="E33" s="229"/>
+      <c r="F33" s="224" t="s">
         <v>270</v>
       </c>
-      <c r="G33" s="252" t="s">
+      <c r="G33" s="225" t="s">
         <v>268</v>
       </c>
       <c r="H33" s="209"/>
       <c r="I33" s="87"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="247" t="s">
+      <c r="D34" s="228" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="248"/>
-      <c r="F34" s="249" t="s">
+      <c r="E34" s="229"/>
+      <c r="F34" s="224" t="s">
         <v>270</v>
       </c>
-      <c r="G34" s="252" t="s">
+      <c r="G34" s="225" t="s">
         <v>271</v>
       </c>
       <c r="H34" s="208"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="250" t="s">
+      <c r="D35" s="230" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="251"/>
-      <c r="F35" s="254" t="s">
+      <c r="E35" s="231"/>
+      <c r="F35" s="227" t="s">
         <v>270</v>
       </c>
-      <c r="G35" s="253" t="s">
+      <c r="G35" s="226" t="s">
         <v>274</v>
       </c>
       <c r="H35" s="210"/>
@@ -3111,17 +3001,17 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="D33:E33"/>
   </mergeCells>
+  <conditionalFormatting sqref="E6:E23">
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H25">
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H25">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3149,24 +3039,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -3303,7 +3193,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="220"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89"/>
@@ -3312,7 +3202,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="220"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89"/>
@@ -3321,7 +3211,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="220"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89"/>
@@ -3330,7 +3220,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="220"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89"/>
@@ -3408,10 +3298,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -3467,7 +3357,7 @@
     <mergeCell ref="H29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3495,24 +3385,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -3677,7 +3567,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="220"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="156">
@@ -3692,7 +3582,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="220"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -3707,7 +3597,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="220"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -3722,7 +3612,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="220"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="128">
@@ -3834,10 +3724,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -3891,7 +3781,7 @@
     <mergeCell ref="H29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3915,24 +3805,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -4280,10 +4170,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -4356,24 +4246,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -4684,10 +4574,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -4762,24 +4652,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5134,10 +5024,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -5216,24 +5106,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41"/>
@@ -5390,7 +5280,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="220"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5405,7 +5295,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="220"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -5420,7 +5310,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="220"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -5435,7 +5325,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="220"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -5547,10 +5437,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -5608,7 +5498,7 @@
     <mergeCell ref="H29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5636,24 +5526,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5891,7 +5781,7 @@
       <c r="I16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="220"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5912,7 +5802,7 @@
       <c r="I17" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="220"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -5933,7 +5823,7 @@
       <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="220"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -5954,7 +5844,7 @@
       <c r="I19" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="220"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -6105,10 +5995,10 @@
       <c r="E29" s="132"/>
       <c r="F29" s="132"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="133" t="s">
@@ -6226,24 +6116,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -6476,7 +6366,7 @@
       <c r="I16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="220"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -6497,7 +6387,7 @@
       <c r="I17" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="220"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -6518,7 +6408,7 @@
       <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="220"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6537,7 +6427,7 @@
         <v>165</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="220"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -6675,10 +6565,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -6742,7 +6632,7 @@
     <mergeCell ref="H29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6770,37 +6660,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="242" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="222"/>
+      <c r="E5" s="243"/>
       <c r="F5" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="221" t="s">
+      <c r="G5" s="242" t="s">
         <v>210</v>
       </c>
-      <c r="H5" s="222"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="43" t="s">
         <v>212</v>
       </c>
@@ -7025,7 +6915,7 @@
       <c r="I16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="220"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -7046,7 +6936,7 @@
       <c r="I17" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="220"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -7067,7 +6957,7 @@
       <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="220"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -7088,7 +6978,7 @@
       <c r="I19" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="220"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -7367,10 +7257,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="218" t="s">
+      <c r="H37" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="219"/>
+      <c r="I37" s="240"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -7503,24 +7393,24 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -8116,13 +8006,13 @@
       <c r="E28" s="150"/>
       <c r="F28" s="150"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="218" t="s">
+      <c r="H28" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="219"/>
+      <c r="I28" s="240"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="244"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="149" t="s">
@@ -8210,10 +8100,10 @@
     <mergeCell ref="K28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8237,22 +8127,22 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -8561,10 +8451,10 @@
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="218" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="219"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -8645,30 +8535,30 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="233"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="235"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -9321,7 +9211,7 @@
       <c r="L27" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="M27" s="220"/>
+      <c r="M27" s="241"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="128">
@@ -9351,7 +9241,7 @@
       <c r="L28" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="M28" s="220"/>
+      <c r="M28" s="241"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="128">
@@ -9381,7 +9271,7 @@
       <c r="L29" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="M29" s="220"/>
+      <c r="M29" s="241"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="128">
@@ -9411,7 +9301,7 @@
       <c r="L30" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="220"/>
+      <c r="M30" s="241"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="128">
@@ -9542,10 +9432,10 @@
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="218" t="s">
+      <c r="K39" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="219"/>
+      <c r="L39" s="240"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="133" t="s">
@@ -9649,31 +9539,31 @@
     <mergeCell ref="K39:L39"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9701,37 +9591,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="232" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="211" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="212"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="214"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="242" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="222"/>
+      <c r="E5" s="243"/>
       <c r="F5" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="221" t="s">
+      <c r="G5" s="242" t="s">
         <v>215</v>
       </c>
-      <c r="H5" s="222"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="43" t="s">
         <v>216</v>
       </c>
@@ -9852,7 +9742,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="220"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106"/>
@@ -9861,7 +9751,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="220"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123"/>
@@ -9870,7 +9760,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="220"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123"/>
@@ -9879,7 +9769,7 @@
       <c r="G19" s="106"/>
       <c r="H19" s="107"/>
       <c r="I19" s="108"/>
-      <c r="J19" s="220"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93"/>
@@ -10030,10 +9920,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="218" t="s">
+      <c r="H37" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="219"/>
+      <c r="I37" s="240"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">

--- a/DCS_Missions/DCS_Maps/Kavkaz/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Kavkaz/Base/Kneeboards/presets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Kavkaz\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920ED4CE-2B2C-498B-A673-BF01303C4072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2088AC-320F-4A11-B44C-B55978DF00A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8265" yWindow="2160" windowWidth="22050" windowHeight="17145" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
@@ -2489,8 +2489,8 @@
   </sheetPr>
   <dimension ref="C2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
